--- a/data base/onAirCampos.xlsx
+++ b/data base/onAirCampos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Esteban\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\zolid_on_air\data base\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="900">
   <si>
     <t>fuente</t>
   </si>
@@ -1001,9 +1001,6 @@
     <t>pendiente por determinar lista</t>
   </si>
   <si>
-    <t>condicional. Ver proceso de prorrogas</t>
-  </si>
-  <si>
     <t>contador de la cantidad de prorrogas agregadas al ticket</t>
   </si>
   <si>
@@ -2081,9 +2078,6 @@
     <t>completable</t>
   </si>
   <si>
-    <t>seguimiento</t>
-  </si>
-  <si>
     <t>Actualización de DF</t>
   </si>
   <si>
@@ -2631,12 +2625,111 @@
   </si>
   <si>
     <t>on_air_36h</t>
+  </si>
+  <si>
+    <t>Ing</t>
+  </si>
+  <si>
+    <t>FECHA EN QUE LLEGA EL CORREO</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>REINICIO, SALE ESCALADO</t>
+  </si>
+  <si>
+    <t>Cord</t>
+  </si>
+  <si>
+    <t>CADA VEZ QUE SE HAGA PRECHK, SEGUIMIENTOS</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>Paramtro ligado al sitio</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>CADA VEZ QUE SE ASIGNA UNA PERSONA</t>
+  </si>
+  <si>
+    <t>cuando el sitio pasa a produccion</t>
+  </si>
+  <si>
+    <t>Parametro del sitio</t>
+  </si>
+  <si>
+    <t>ing que lo saca a prod</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>solo si ente ejecutor en nokiA</t>
+  </si>
+  <si>
+    <t>cerrado/abierto/na</t>
+  </si>
+  <si>
+    <t>SECTORES QUE SE VAN A TRABAJAR</t>
+  </si>
+  <si>
+    <t>solo escalamientos</t>
+  </si>
+  <si>
+    <t>BUSCAR EN DUMP</t>
+  </si>
+  <si>
+    <t>momento en que se asigna</t>
+  </si>
+  <si>
+    <t>fin de cualquier estado</t>
+  </si>
+  <si>
+    <t>fecha en que se escala</t>
+  </si>
+  <si>
+    <t>duracion del escalamientoi</t>
+  </si>
+  <si>
+    <t>cada v ez que se escala</t>
+  </si>
+  <si>
+    <t>semana en que ingresa</t>
+  </si>
+  <si>
+    <t>tiempo de vida desde la fecha notifiacion</t>
+  </si>
+  <si>
+    <t>tiempo de vida desde la uktina asignacion</t>
+  </si>
+  <si>
+    <t>escalamiento</t>
+  </si>
+  <si>
+    <t>cual es el kpi degradado</t>
+  </si>
+  <si>
+    <t>npi</t>
+  </si>
+  <si>
+    <t>cantidad de veces escaldo</t>
+  </si>
+  <si>
+    <t>suma de todos los tiempo en escalado</t>
+  </si>
+  <si>
+    <t>arranca en falso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2837,6 +2930,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2872,6 +2982,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3047,12 +3174,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K116" sqref="K116"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,7 +3194,7 @@
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>278</v>
       </c>
@@ -3093,10 +3220,10 @@
         <v>122</v>
       </c>
       <c r="J1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>135</v>
       </c>
@@ -3113,19 +3240,19 @@
         <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="H2" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>136</v>
       </c>
@@ -3136,7 +3263,7 @@
         <v>121</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>124</v>
+        <v>867</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -3145,16 +3272,16 @@
         <v>123</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>137</v>
       </c>
@@ -3174,16 +3301,16 @@
         <v>123</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>138</v>
       </c>
@@ -3200,19 +3327,19 @@
         <v>126</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>139</v>
       </c>
@@ -3229,19 +3356,19 @@
         <v>126</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>140</v>
       </c>
@@ -3261,16 +3388,16 @@
         <v>304</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
@@ -3290,16 +3417,16 @@
         <v>304</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>142</v>
       </c>
@@ -3310,7 +3437,7 @@
         <v>133</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>124</v>
+        <v>871</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>1</v>
@@ -3325,10 +3452,13 @@
         <v>126</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>143</v>
       </c>
@@ -3339,7 +3469,7 @@
         <v>294</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>124</v>
+        <v>869</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>126</v>
@@ -3348,16 +3478,16 @@
         <v>123</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>368</v>
+        <v>868</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>144</v>
       </c>
@@ -3374,16 +3504,19 @@
         <v>126</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>145</v>
       </c>
@@ -3400,19 +3533,19 @@
         <v>126</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>146</v>
       </c>
@@ -3423,7 +3556,7 @@
         <v>133</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>124</v>
+        <v>873</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>126</v>
@@ -3438,10 +3571,10 @@
         <v>126</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>147</v>
       </c>
@@ -3452,7 +3585,7 @@
         <v>133</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>124</v>
+        <v>869</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>126</v>
@@ -3461,16 +3594,16 @@
         <v>123</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>148</v>
       </c>
@@ -3481,7 +3614,7 @@
         <v>121</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>124</v>
+        <v>867</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>1</v>
@@ -3490,16 +3623,19 @@
         <v>123</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>149</v>
       </c>
@@ -3510,7 +3646,7 @@
         <v>121</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>124</v>
+        <v>867</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>1</v>
@@ -3519,16 +3655,19 @@
         <v>123</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>150</v>
       </c>
@@ -3545,19 +3684,19 @@
         <v>126</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>151</v>
       </c>
@@ -3574,10 +3713,10 @@
         <v>126</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>126</v>
@@ -3586,7 +3725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>152</v>
       </c>
@@ -3606,16 +3745,16 @@
         <v>304</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>153</v>
       </c>
@@ -3635,16 +3774,16 @@
         <v>304</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>154</v>
       </c>
@@ -3655,19 +3794,25 @@
         <v>294</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>274</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>155</v>
       </c>
@@ -3690,10 +3835,13 @@
         <v>126</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>156</v>
       </c>
@@ -3704,7 +3852,7 @@
         <v>121</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>1</v>
@@ -3716,10 +3864,13 @@
         <v>126</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>157</v>
       </c>
@@ -3730,7 +3881,7 @@
         <v>121</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>1</v>
@@ -3745,10 +3896,10 @@
         <v>257</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>158</v>
       </c>
@@ -3777,7 +3928,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>159</v>
       </c>
@@ -3803,10 +3954,10 @@
         <v>126</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>160</v>
       </c>
@@ -3832,10 +3983,13 @@
         <v>126</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>161</v>
       </c>
@@ -3846,7 +4000,7 @@
         <v>121</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>124</v>
+        <v>880</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>1</v>
@@ -3855,16 +4009,19 @@
         <v>123</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>162</v>
       </c>
@@ -3875,7 +4032,7 @@
         <v>121</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>124</v>
+        <v>880</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>126</v>
@@ -3884,7 +4041,7 @@
         <v>123</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>126</v>
@@ -3893,10 +4050,10 @@
         <v>255</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>163</v>
       </c>
@@ -3907,7 +4064,7 @@
         <v>133</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>124</v>
+        <v>880</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>126</v>
@@ -3922,10 +4079,10 @@
         <v>126</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>164</v>
       </c>
@@ -3936,7 +4093,7 @@
         <v>133</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>124</v>
+        <v>880</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>126</v>
@@ -3951,10 +4108,10 @@
         <v>126</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>165</v>
       </c>
@@ -3971,16 +4128,16 @@
         <v>126</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>126</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>166</v>
       </c>
@@ -3991,7 +4148,7 @@
         <v>133</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>124</v>
+        <v>880</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>126</v>
@@ -4000,16 +4157,16 @@
         <v>123</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>303</v>
+        <v>882</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>167</v>
       </c>
@@ -4020,7 +4177,7 @@
         <v>133</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>124</v>
+        <v>880</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>126</v>
@@ -4029,16 +4186,16 @@
         <v>123</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>303</v>
+        <v>882</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>168</v>
       </c>
@@ -4049,7 +4206,7 @@
         <v>133</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>124</v>
+        <v>880</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>126</v>
@@ -4058,16 +4215,16 @@
         <v>123</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>303</v>
+        <v>882</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>169</v>
       </c>
@@ -4078,7 +4235,7 @@
         <v>133</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>1</v>
@@ -4093,10 +4250,13 @@
         <v>126</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>170</v>
       </c>
@@ -4107,7 +4267,7 @@
         <v>133</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>1</v>
@@ -4122,10 +4282,10 @@
         <v>126</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>171</v>
       </c>
@@ -4151,13 +4311,13 @@
         <v>126</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>172</v>
       </c>
@@ -4168,7 +4328,7 @@
         <v>133</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>1</v>
@@ -4183,13 +4343,13 @@
         <v>126</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>173</v>
       </c>
@@ -4200,7 +4360,7 @@
         <v>121</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>126</v>
@@ -4209,16 +4369,16 @@
         <v>123</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>174</v>
       </c>
@@ -4244,10 +4404,10 @@
         <v>298</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>175</v>
       </c>
@@ -4258,7 +4418,7 @@
         <v>121</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>126</v>
@@ -4270,10 +4430,13 @@
         <v>126</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>176</v>
       </c>
@@ -4299,7 +4462,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>177</v>
       </c>
@@ -4322,10 +4485,10 @@
         <v>126</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>178</v>
       </c>
@@ -4348,7 +4511,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>179</v>
       </c>
@@ -4359,7 +4522,7 @@
         <v>121</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>126</v>
@@ -4371,13 +4534,16 @@
         <v>126</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>180</v>
       </c>
@@ -4388,7 +4554,7 @@
         <v>121</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>126</v>
@@ -4400,13 +4566,16 @@
         <v>126</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>181</v>
       </c>
@@ -4417,7 +4586,7 @@
         <v>121</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>126</v>
@@ -4429,13 +4598,16 @@
         <v>126</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>182</v>
       </c>
@@ -4446,7 +4618,7 @@
         <v>133</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>126</v>
@@ -4461,10 +4633,10 @@
         <v>126</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>183</v>
       </c>
@@ -4475,7 +4647,7 @@
         <v>133</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>126</v>
@@ -4490,10 +4662,10 @@
         <v>126</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>184</v>
       </c>
@@ -4504,7 +4676,7 @@
         <v>133</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>126</v>
@@ -4519,10 +4691,10 @@
         <v>126</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>185</v>
       </c>
@@ -4533,7 +4705,7 @@
         <v>133</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>126</v>
@@ -4548,10 +4720,10 @@
         <v>126</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>186</v>
       </c>
@@ -4561,14 +4733,17 @@
       <c r="C53" s="5" t="s">
         <v>294</v>
       </c>
+      <c r="D53" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="H53" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="5" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>187</v>
       </c>
@@ -4578,14 +4753,17 @@
       <c r="C54" s="5" t="s">
         <v>294</v>
       </c>
+      <c r="D54" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="H54" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L54" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>188</v>
       </c>
@@ -4602,7 +4780,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>189</v>
       </c>
@@ -4613,7 +4791,7 @@
         <v>121</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>123</v>
@@ -4625,10 +4803,10 @@
         <v>126</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>190</v>
       </c>
@@ -4639,7 +4817,7 @@
         <v>121</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>123</v>
@@ -4651,10 +4829,10 @@
         <v>126</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>191</v>
       </c>
@@ -4671,7 +4849,7 @@
         <v>306</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>126</v>
@@ -4680,10 +4858,13 @@
         <v>311</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>192</v>
       </c>
@@ -4709,10 +4890,13 @@
         <v>312</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>193</v>
       </c>
@@ -4732,10 +4916,13 @@
         <v>126</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>194</v>
       </c>
@@ -4758,10 +4945,10 @@
         <v>312</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>195</v>
       </c>
@@ -4781,10 +4968,10 @@
         <v>126</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>196</v>
       </c>
@@ -4807,10 +4994,10 @@
         <v>312</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -4830,10 +5017,10 @@
         <v>126</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>198</v>
       </c>
@@ -4856,10 +5043,10 @@
         <v>312</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -4879,10 +5066,10 @@
         <v>126</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>200</v>
       </c>
@@ -4905,10 +5092,10 @@
         <v>312</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>201</v>
       </c>
@@ -4928,10 +5115,10 @@
         <v>126</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>202</v>
       </c>
@@ -4954,10 +5141,10 @@
         <v>312</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>203</v>
       </c>
@@ -4977,10 +5164,10 @@
         <v>126</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>204</v>
       </c>
@@ -5003,10 +5190,10 @@
         <v>312</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>205</v>
       </c>
@@ -5026,10 +5213,10 @@
         <v>126</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>206</v>
       </c>
@@ -5052,7 +5239,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>207</v>
       </c>
@@ -5072,13 +5259,16 @@
         <v>126</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>208</v>
       </c>
@@ -5091,8 +5281,11 @@
       <c r="I75" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L75" s="5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>209</v>
       </c>
@@ -5105,8 +5298,11 @@
       <c r="I76" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>210</v>
       </c>
@@ -5117,7 +5313,7 @@
         <v>133</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>1</v>
@@ -5132,10 +5328,10 @@
         <v>126</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>211</v>
       </c>
@@ -5146,25 +5342,25 @@
         <v>121</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>685</v>
+        <v>894</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>314</v>
+        <v>895</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>212</v>
       </c>
@@ -5184,16 +5380,19 @@
         <v>123</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>213</v>
       </c>
@@ -5213,16 +5412,19 @@
         <v>123</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>214</v>
       </c>
@@ -5233,7 +5435,7 @@
         <v>121</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>1</v>
@@ -5242,16 +5444,16 @@
         <v>123</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>215</v>
       </c>
@@ -5262,7 +5464,7 @@
         <v>133</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>126</v>
@@ -5271,16 +5473,16 @@
         <v>306</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>216</v>
       </c>
@@ -5291,7 +5493,7 @@
         <v>133</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>1</v>
@@ -5309,10 +5511,10 @@
         <v>316</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>217</v>
       </c>
@@ -5323,7 +5525,7 @@
         <v>315</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>1</v>
@@ -5341,10 +5543,10 @@
         <v>316</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>218</v>
       </c>
@@ -5355,7 +5557,7 @@
         <v>133</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>1</v>
@@ -5373,10 +5575,10 @@
         <v>316</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>219</v>
       </c>
@@ -5387,7 +5589,7 @@
         <v>315</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>1</v>
@@ -5405,10 +5607,10 @@
         <v>316</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>220</v>
       </c>
@@ -5419,7 +5621,7 @@
         <v>133</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>1</v>
@@ -5437,10 +5639,10 @@
         <v>316</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>221</v>
       </c>
@@ -5451,7 +5653,7 @@
         <v>315</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>1</v>
@@ -5469,10 +5671,10 @@
         <v>316</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>222</v>
       </c>
@@ -5483,7 +5685,7 @@
         <v>133</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>1</v>
@@ -5501,10 +5703,10 @@
         <v>316</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>223</v>
       </c>
@@ -5515,7 +5717,7 @@
         <v>315</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>1</v>
@@ -5533,10 +5735,10 @@
         <v>316</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>224</v>
       </c>
@@ -5547,7 +5749,7 @@
         <v>133</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>1</v>
@@ -5565,10 +5767,10 @@
         <v>316</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>225</v>
       </c>
@@ -5579,7 +5781,7 @@
         <v>133</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>1</v>
@@ -5597,10 +5799,10 @@
         <v>316</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>226</v>
       </c>
@@ -5611,7 +5813,7 @@
         <v>133</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>1</v>
@@ -5629,10 +5831,10 @@
         <v>316</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>227</v>
       </c>
@@ -5643,7 +5845,7 @@
         <v>133</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>1</v>
@@ -5661,10 +5863,10 @@
         <v>316</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>228</v>
       </c>
@@ -5690,10 +5892,13 @@
         <v>126</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>229</v>
       </c>
@@ -5716,7 +5921,10 @@
         <v>126</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5758,7 +5966,7 @@
         <v>121</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>126</v>
@@ -5773,7 +5981,7 @@
         <v>126</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5787,19 +5995,19 @@
         <v>121</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5813,19 +6021,19 @@
         <v>121</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5876,7 +6084,7 @@
         <v>126</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5902,7 +6110,7 @@
         <v>126</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5928,7 +6136,7 @@
         <v>126</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5942,13 +6150,13 @@
         <v>133</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>321</v>
@@ -5957,7 +6165,7 @@
         <v>126</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5971,13 +6179,13 @@
         <v>133</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>321</v>
@@ -5986,7 +6194,7 @@
         <v>126</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6000,13 +6208,13 @@
         <v>133</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>321</v>
@@ -6015,7 +6223,7 @@
         <v>126</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6029,13 +6237,13 @@
         <v>133</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>321</v>
@@ -6044,7 +6252,7 @@
         <v>126</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6058,13 +6266,13 @@
         <v>133</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>321</v>
@@ -6073,7 +6281,7 @@
         <v>126</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6087,22 +6295,22 @@
         <v>294</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>247</v>
       </c>
@@ -6113,22 +6321,22 @@
         <v>294</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>248</v>
       </c>
@@ -6139,13 +6347,13 @@
         <v>133</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>322</v>
@@ -6154,10 +6362,10 @@
         <v>126</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>249</v>
       </c>
@@ -6168,22 +6376,22 @@
         <v>121</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>250</v>
       </c>
@@ -6194,13 +6402,13 @@
         <v>133</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>124</v>
+        <v>875</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>323</v>
@@ -6209,10 +6417,10 @@
         <v>126</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>251</v>
       </c>
@@ -6229,7 +6437,7 @@
         <v>126</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>126</v>
@@ -6238,10 +6446,13 @@
         <v>324</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>252</v>
       </c>
@@ -6258,16 +6469,16 @@
         <v>126</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>325</v>
+        <v>899</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>253</v>
       </c>
@@ -6284,16 +6495,16 @@
         <v>126</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>254</v>
       </c>
@@ -6304,25 +6515,25 @@
         <v>133</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>261</v>
       </c>
@@ -6339,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>130</v>
@@ -6348,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>262</v>
       </c>
@@ -6365,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G122" t="s">
         <v>132</v>
@@ -6374,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>263</v>
       </c>
@@ -6391,13 +6602,13 @@
         <v>126</v>
       </c>
       <c r="F123" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -6414,13 +6625,13 @@
         <v>126</v>
       </c>
       <c r="F124" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H124" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>265</v>
       </c>
@@ -6437,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G125" t="s">
         <v>256</v>
@@ -6446,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>266</v>
       </c>
@@ -6463,13 +6674,13 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H126" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>267</v>
       </c>
@@ -6486,13 +6697,13 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H127" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>268</v>
       </c>
@@ -6509,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H128" t="s">
         <v>1</v>
@@ -6532,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H129" t="s">
         <v>1</v>
@@ -6555,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H130" t="s">
         <v>1</v>
@@ -6578,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G131" t="s">
         <v>258</v>
@@ -6592,7 +6803,7 @@
         <v>272</v>
       </c>
       <c r="B132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C132" t="s">
         <v>121</v>
@@ -6604,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G132" t="s">
         <v>259</v>
@@ -6630,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -6650,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -6670,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -6690,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -6718,90 +6929,90 @@
         <v>277</v>
       </c>
       <c r="B138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B141" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B142" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B143" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B144" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>345</v>
+      </c>
+      <c r="B145" t="s">
         <v>346</v>
-      </c>
-      <c r="B145" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>347</v>
+      </c>
+      <c r="B146" t="s">
         <v>348</v>
-      </c>
-      <c r="B146" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147" t="s">
         <v>350</v>
       </c>
-      <c r="B147" t="s">
-        <v>351</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I144"/>
+  <autoFilter ref="A1:I144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6824,7 +7035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
@@ -6916,10 +7127,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -6943,1916 +7154,1916 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J3" t="s">
         <v>408</v>
       </c>
-      <c r="I3" t="s">
-        <v>410</v>
-      </c>
-      <c r="J3" t="s">
-        <v>409</v>
-      </c>
       <c r="K3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="O3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="P3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I4" t="s">
+        <v>412</v>
+      </c>
+      <c r="J4" t="s">
         <v>411</v>
       </c>
-      <c r="I4" t="s">
-        <v>413</v>
-      </c>
-      <c r="J4" t="s">
-        <v>412</v>
-      </c>
       <c r="K4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="O4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="P4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H5" t="s">
+        <v>413</v>
+      </c>
+      <c r="I5" t="s">
+        <v>409</v>
+      </c>
+      <c r="J5" t="s">
         <v>414</v>
       </c>
-      <c r="I5" t="s">
-        <v>410</v>
-      </c>
-      <c r="J5" t="s">
-        <v>415</v>
-      </c>
       <c r="K5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="O5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J6" t="s">
         <v>416</v>
       </c>
-      <c r="I6" t="s">
-        <v>418</v>
-      </c>
-      <c r="J6" t="s">
-        <v>417</v>
-      </c>
       <c r="K6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="O6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="P6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H7" t="s">
+        <v>418</v>
+      </c>
+      <c r="I7" t="s">
+        <v>417</v>
+      </c>
+      <c r="J7" t="s">
         <v>419</v>
       </c>
-      <c r="I7" t="s">
-        <v>418</v>
-      </c>
-      <c r="J7" t="s">
-        <v>420</v>
-      </c>
       <c r="K7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="O7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="P7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D8" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H8" t="s">
+        <v>420</v>
+      </c>
+      <c r="I8" t="s">
+        <v>422</v>
+      </c>
+      <c r="J8" t="s">
         <v>421</v>
       </c>
-      <c r="I8" t="s">
-        <v>423</v>
-      </c>
-      <c r="J8" t="s">
-        <v>422</v>
-      </c>
       <c r="K8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="O8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="P8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H9" t="s">
+        <v>423</v>
+      </c>
+      <c r="I9" t="s">
+        <v>425</v>
+      </c>
+      <c r="J9" t="s">
         <v>424</v>
       </c>
-      <c r="I9" t="s">
-        <v>426</v>
-      </c>
-      <c r="J9" t="s">
-        <v>425</v>
-      </c>
       <c r="K9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N9" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="O9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H10" t="s">
+        <v>426</v>
+      </c>
+      <c r="I10" t="s">
+        <v>425</v>
+      </c>
+      <c r="J10" t="s">
         <v>427</v>
       </c>
-      <c r="I10" t="s">
-        <v>426</v>
-      </c>
-      <c r="J10" t="s">
-        <v>428</v>
-      </c>
       <c r="K10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="O10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="P10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H11" t="s">
+        <v>428</v>
+      </c>
+      <c r="I11" t="s">
+        <v>430</v>
+      </c>
+      <c r="J11" t="s">
         <v>429</v>
       </c>
-      <c r="I11" t="s">
-        <v>431</v>
-      </c>
-      <c r="J11" t="s">
-        <v>430</v>
-      </c>
       <c r="K11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="O11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="P11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>767</v>
+      </c>
+      <c r="D12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E12" t="s">
         <v>769</v>
       </c>
-      <c r="D12" t="s">
-        <v>778</v>
-      </c>
-      <c r="E12" t="s">
-        <v>771</v>
-      </c>
       <c r="F12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H12" t="s">
+        <v>431</v>
+      </c>
+      <c r="I12" t="s">
+        <v>417</v>
+      </c>
+      <c r="J12" t="s">
         <v>432</v>
       </c>
-      <c r="I12" t="s">
-        <v>418</v>
-      </c>
-      <c r="J12" t="s">
-        <v>433</v>
-      </c>
       <c r="K12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N12" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="O12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="P12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H13" t="s">
+        <v>433</v>
+      </c>
+      <c r="I13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J13" t="s">
         <v>434</v>
       </c>
-      <c r="I13" t="s">
-        <v>423</v>
-      </c>
-      <c r="J13" t="s">
-        <v>435</v>
-      </c>
       <c r="K13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="O13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="P13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E14" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H14" t="s">
+        <v>435</v>
+      </c>
+      <c r="I14" t="s">
+        <v>422</v>
+      </c>
+      <c r="J14" t="s">
         <v>436</v>
       </c>
-      <c r="I14" t="s">
-        <v>423</v>
-      </c>
-      <c r="J14" t="s">
-        <v>437</v>
-      </c>
       <c r="K14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="O14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="P14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E15" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H15" t="s">
+        <v>437</v>
+      </c>
+      <c r="I15" t="s">
+        <v>409</v>
+      </c>
+      <c r="J15" t="s">
         <v>438</v>
       </c>
-      <c r="I15" t="s">
-        <v>410</v>
-      </c>
-      <c r="J15" t="s">
-        <v>439</v>
-      </c>
       <c r="K15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N15" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="P15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E16" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H16" t="s">
+        <v>439</v>
+      </c>
+      <c r="I16" t="s">
+        <v>425</v>
+      </c>
+      <c r="J16" t="s">
         <v>440</v>
       </c>
-      <c r="I16" t="s">
-        <v>426</v>
-      </c>
-      <c r="J16" t="s">
-        <v>441</v>
-      </c>
       <c r="K16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M16" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="O16" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="P16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E17" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H17" t="s">
+        <v>441</v>
+      </c>
+      <c r="I17" t="s">
+        <v>425</v>
+      </c>
+      <c r="J17" t="s">
         <v>442</v>
       </c>
-      <c r="I17" t="s">
-        <v>426</v>
-      </c>
-      <c r="J17" t="s">
-        <v>443</v>
-      </c>
       <c r="K17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N17" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="O17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E18" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H18" t="s">
+        <v>443</v>
+      </c>
+      <c r="I18" t="s">
+        <v>417</v>
+      </c>
+      <c r="J18" t="s">
         <v>444</v>
       </c>
-      <c r="I18" t="s">
-        <v>418</v>
-      </c>
-      <c r="J18" t="s">
-        <v>445</v>
-      </c>
       <c r="K18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N18" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O18" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="P18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H19" t="s">
+        <v>445</v>
+      </c>
+      <c r="I19" t="s">
+        <v>412</v>
+      </c>
+      <c r="J19" t="s">
         <v>446</v>
       </c>
-      <c r="I19" t="s">
-        <v>413</v>
-      </c>
-      <c r="J19" t="s">
-        <v>447</v>
-      </c>
       <c r="K19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N19" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="O19" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="P19" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H20" t="s">
+        <v>447</v>
+      </c>
+      <c r="I20" t="s">
+        <v>425</v>
+      </c>
+      <c r="J20" t="s">
         <v>448</v>
       </c>
-      <c r="I20" t="s">
-        <v>426</v>
-      </c>
-      <c r="J20" t="s">
-        <v>449</v>
-      </c>
       <c r="K20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="O20" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="P20" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E21" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H21" t="s">
+        <v>449</v>
+      </c>
+      <c r="I21" t="s">
+        <v>417</v>
+      </c>
+      <c r="J21" t="s">
         <v>450</v>
       </c>
-      <c r="I21" t="s">
-        <v>418</v>
-      </c>
-      <c r="J21" t="s">
-        <v>451</v>
-      </c>
       <c r="K21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N21" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="P21" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E22" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H22" t="s">
+        <v>451</v>
+      </c>
+      <c r="I22" t="s">
+        <v>412</v>
+      </c>
+      <c r="J22" t="s">
         <v>452</v>
       </c>
-      <c r="I22" t="s">
-        <v>413</v>
-      </c>
-      <c r="J22" t="s">
-        <v>453</v>
-      </c>
       <c r="K22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N22" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="O22" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="P22" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E23" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H23" t="s">
+        <v>453</v>
+      </c>
+      <c r="I23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J23" t="s">
         <v>454</v>
       </c>
-      <c r="I23" t="s">
-        <v>410</v>
-      </c>
-      <c r="J23" t="s">
-        <v>455</v>
-      </c>
       <c r="K23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="O23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="P23" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E24" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H24" t="s">
+        <v>455</v>
+      </c>
+      <c r="I24" t="s">
+        <v>417</v>
+      </c>
+      <c r="J24" t="s">
         <v>456</v>
       </c>
-      <c r="I24" t="s">
-        <v>418</v>
-      </c>
-      <c r="J24" t="s">
-        <v>457</v>
-      </c>
       <c r="K24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N24" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="O24" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="P24" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E25" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H25" t="s">
+        <v>457</v>
+      </c>
+      <c r="I25" t="s">
+        <v>422</v>
+      </c>
+      <c r="J25" t="s">
         <v>458</v>
       </c>
-      <c r="I25" t="s">
-        <v>423</v>
-      </c>
-      <c r="J25" t="s">
-        <v>459</v>
-      </c>
       <c r="K25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N25" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="O25" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="P25" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E26" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H26" t="s">
+        <v>459</v>
+      </c>
+      <c r="I26" t="s">
+        <v>412</v>
+      </c>
+      <c r="J26" t="s">
         <v>460</v>
       </c>
-      <c r="I26" t="s">
-        <v>413</v>
-      </c>
-      <c r="J26" t="s">
-        <v>461</v>
-      </c>
       <c r="K26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N26" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="O26" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="P26" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E27" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H27" t="s">
+        <v>461</v>
+      </c>
+      <c r="I27" t="s">
+        <v>422</v>
+      </c>
+      <c r="J27" t="s">
         <v>462</v>
       </c>
-      <c r="I27" t="s">
-        <v>423</v>
-      </c>
-      <c r="J27" t="s">
-        <v>463</v>
-      </c>
       <c r="K27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N27" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="O27" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="P27" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H28" t="s">
+        <v>463</v>
+      </c>
+      <c r="I28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J28" t="s">
         <v>464</v>
       </c>
-      <c r="I28" t="s">
-        <v>413</v>
-      </c>
-      <c r="J28" t="s">
-        <v>465</v>
-      </c>
       <c r="K28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N28" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="O28" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="P28" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H29" t="s">
+        <v>465</v>
+      </c>
+      <c r="I29" t="s">
+        <v>425</v>
+      </c>
+      <c r="J29" t="s">
         <v>466</v>
       </c>
-      <c r="I29" t="s">
-        <v>426</v>
-      </c>
-      <c r="J29" t="s">
-        <v>467</v>
-      </c>
       <c r="K29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M29" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N29" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="O29" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="P29" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E30" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H30" t="s">
+        <v>467</v>
+      </c>
+      <c r="I30" t="s">
+        <v>412</v>
+      </c>
+      <c r="J30" t="s">
         <v>468</v>
       </c>
-      <c r="I30" t="s">
-        <v>413</v>
-      </c>
-      <c r="J30" t="s">
-        <v>469</v>
-      </c>
       <c r="K30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M30" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="O30" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="P30" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E31" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H31" t="s">
+        <v>469</v>
+      </c>
+      <c r="I31" t="s">
+        <v>412</v>
+      </c>
+      <c r="J31" t="s">
         <v>470</v>
       </c>
-      <c r="I31" t="s">
-        <v>413</v>
-      </c>
-      <c r="J31" t="s">
-        <v>471</v>
-      </c>
       <c r="K31" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M31" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N31" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="O31" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="P31" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E32" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H32" t="s">
+        <v>471</v>
+      </c>
+      <c r="I32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J32" t="s">
         <v>472</v>
       </c>
-      <c r="I32" t="s">
-        <v>418</v>
-      </c>
-      <c r="J32" t="s">
-        <v>473</v>
-      </c>
       <c r="K32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M32" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N32" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="O32" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="P32" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="33" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
+        <v>473</v>
+      </c>
+      <c r="I33" t="s">
+        <v>412</v>
+      </c>
+      <c r="J33" t="s">
         <v>474</v>
       </c>
-      <c r="I33" t="s">
-        <v>413</v>
-      </c>
-      <c r="J33" t="s">
-        <v>475</v>
-      </c>
       <c r="K33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N33" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="O33" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="P33" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="34" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
+        <v>475</v>
+      </c>
+      <c r="I34" t="s">
+        <v>425</v>
+      </c>
+      <c r="J34" t="s">
         <v>476</v>
       </c>
-      <c r="I34" t="s">
-        <v>426</v>
-      </c>
-      <c r="J34" t="s">
-        <v>477</v>
-      </c>
       <c r="K34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N34" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="O34" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="P34" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
+        <v>477</v>
+      </c>
+      <c r="I35" t="s">
+        <v>425</v>
+      </c>
+      <c r="J35" t="s">
         <v>478</v>
       </c>
-      <c r="I35" t="s">
-        <v>426</v>
-      </c>
-      <c r="J35" t="s">
-        <v>479</v>
-      </c>
       <c r="K35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M35" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N35" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="O35" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="P35" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="36" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
+        <v>479</v>
+      </c>
+      <c r="I36" t="s">
+        <v>425</v>
+      </c>
+      <c r="J36" t="s">
         <v>480</v>
       </c>
-      <c r="I36" t="s">
-        <v>426</v>
-      </c>
-      <c r="J36" t="s">
-        <v>481</v>
-      </c>
       <c r="K36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N36" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="O36" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="P36" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="37" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
+        <v>481</v>
+      </c>
+      <c r="I37" t="s">
+        <v>412</v>
+      </c>
+      <c r="J37" t="s">
         <v>482</v>
       </c>
-      <c r="I37" t="s">
-        <v>413</v>
-      </c>
-      <c r="J37" t="s">
-        <v>483</v>
-      </c>
       <c r="K37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M37" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N37" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="O37" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P37" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
+        <v>483</v>
+      </c>
+      <c r="I38" t="s">
+        <v>417</v>
+      </c>
+      <c r="J38" t="s">
         <v>484</v>
       </c>
-      <c r="I38" t="s">
-        <v>418</v>
-      </c>
-      <c r="J38" t="s">
-        <v>485</v>
-      </c>
       <c r="K38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N38" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O38" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="P38" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="39" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
+        <v>485</v>
+      </c>
+      <c r="I39" t="s">
+        <v>417</v>
+      </c>
+      <c r="J39" t="s">
         <v>486</v>
       </c>
-      <c r="I39" t="s">
-        <v>418</v>
-      </c>
-      <c r="J39" t="s">
-        <v>487</v>
-      </c>
       <c r="K39" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M39" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N39" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="O39" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="P39" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="40" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
+        <v>487</v>
+      </c>
+      <c r="I40" t="s">
+        <v>409</v>
+      </c>
+      <c r="J40" t="s">
         <v>488</v>
       </c>
-      <c r="I40" t="s">
-        <v>410</v>
-      </c>
-      <c r="J40" t="s">
-        <v>489</v>
-      </c>
       <c r="K40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M40" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N40" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="41" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
+        <v>489</v>
+      </c>
+      <c r="I41" t="s">
+        <v>409</v>
+      </c>
+      <c r="J41" t="s">
         <v>490</v>
       </c>
-      <c r="I41" t="s">
-        <v>410</v>
-      </c>
-      <c r="J41" t="s">
-        <v>491</v>
-      </c>
       <c r="K41" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M41" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N41" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="42" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
+        <v>491</v>
+      </c>
+      <c r="I42" t="s">
+        <v>412</v>
+      </c>
+      <c r="J42" t="s">
         <v>492</v>
       </c>
-      <c r="I42" t="s">
-        <v>413</v>
-      </c>
-      <c r="J42" t="s">
-        <v>493</v>
-      </c>
       <c r="K42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
+        <v>493</v>
+      </c>
+      <c r="I43" t="s">
+        <v>425</v>
+      </c>
+      <c r="J43" t="s">
         <v>494</v>
       </c>
-      <c r="I43" t="s">
-        <v>426</v>
-      </c>
-      <c r="J43" t="s">
-        <v>495</v>
-      </c>
       <c r="K43" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N43" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
+        <v>495</v>
+      </c>
+      <c r="I44" t="s">
+        <v>417</v>
+      </c>
+      <c r="J44" t="s">
         <v>496</v>
       </c>
-      <c r="I44" t="s">
-        <v>418</v>
-      </c>
-      <c r="J44" t="s">
-        <v>497</v>
-      </c>
       <c r="K44" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M44" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N44" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
+        <v>497</v>
+      </c>
+      <c r="I45" t="s">
+        <v>425</v>
+      </c>
+      <c r="J45" t="s">
         <v>498</v>
       </c>
-      <c r="I45" t="s">
-        <v>426</v>
-      </c>
-      <c r="J45" t="s">
-        <v>499</v>
-      </c>
       <c r="K45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N45" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="46" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
+        <v>499</v>
+      </c>
+      <c r="I46" t="s">
+        <v>425</v>
+      </c>
+      <c r="J46" t="s">
         <v>500</v>
       </c>
-      <c r="I46" t="s">
-        <v>426</v>
-      </c>
-      <c r="J46" t="s">
-        <v>501</v>
-      </c>
       <c r="K46" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M46" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N46" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
+        <v>501</v>
+      </c>
+      <c r="I47" t="s">
+        <v>422</v>
+      </c>
+      <c r="J47" t="s">
         <v>502</v>
       </c>
-      <c r="I47" t="s">
-        <v>423</v>
-      </c>
-      <c r="J47" t="s">
-        <v>503</v>
-      </c>
       <c r="K47" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N47" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="48" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
+        <v>503</v>
+      </c>
+      <c r="I48" t="s">
+        <v>425</v>
+      </c>
+      <c r="J48" t="s">
         <v>504</v>
       </c>
-      <c r="I48" t="s">
-        <v>426</v>
-      </c>
-      <c r="J48" t="s">
-        <v>505</v>
-      </c>
       <c r="K48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N48" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
+        <v>505</v>
+      </c>
+      <c r="I49" t="s">
+        <v>425</v>
+      </c>
+      <c r="J49" t="s">
         <v>506</v>
       </c>
-      <c r="I49" t="s">
-        <v>426</v>
-      </c>
-      <c r="J49" t="s">
-        <v>507</v>
-      </c>
       <c r="K49" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M49" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N49" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
+        <v>507</v>
+      </c>
+      <c r="I50" t="s">
+        <v>409</v>
+      </c>
+      <c r="J50" t="s">
         <v>508</v>
       </c>
-      <c r="I50" t="s">
-        <v>410</v>
-      </c>
-      <c r="J50" t="s">
-        <v>509</v>
-      </c>
       <c r="K50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M50" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N50" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="51" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
+        <v>509</v>
+      </c>
+      <c r="I51" t="s">
+        <v>425</v>
+      </c>
+      <c r="J51" t="s">
         <v>510</v>
       </c>
-      <c r="I51" t="s">
-        <v>426</v>
-      </c>
-      <c r="J51" t="s">
-        <v>511</v>
-      </c>
       <c r="K51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M51" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N51" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="52" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
+        <v>511</v>
+      </c>
+      <c r="I52" t="s">
+        <v>425</v>
+      </c>
+      <c r="J52" t="s">
         <v>512</v>
       </c>
-      <c r="I52" t="s">
-        <v>426</v>
-      </c>
-      <c r="J52" t="s">
-        <v>513</v>
-      </c>
       <c r="K52" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M52" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N52" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="53" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
+        <v>513</v>
+      </c>
+      <c r="I53" t="s">
+        <v>409</v>
+      </c>
+      <c r="J53" t="s">
         <v>514</v>
       </c>
-      <c r="I53" t="s">
-        <v>410</v>
-      </c>
-      <c r="J53" t="s">
-        <v>515</v>
-      </c>
       <c r="K53" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N53" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="54" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
+        <v>515</v>
+      </c>
+      <c r="I54" t="s">
+        <v>409</v>
+      </c>
+      <c r="J54" t="s">
         <v>516</v>
       </c>
-      <c r="I54" t="s">
-        <v>410</v>
-      </c>
-      <c r="J54" t="s">
-        <v>517</v>
-      </c>
       <c r="K54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M54" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N54" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="55" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
+        <v>517</v>
+      </c>
+      <c r="I55" t="s">
+        <v>417</v>
+      </c>
+      <c r="J55" t="s">
         <v>518</v>
       </c>
-      <c r="I55" t="s">
-        <v>418</v>
-      </c>
-      <c r="J55" t="s">
-        <v>519</v>
-      </c>
       <c r="K55" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M55" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N55" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
+        <v>519</v>
+      </c>
+      <c r="I56" t="s">
+        <v>409</v>
+      </c>
+      <c r="J56" t="s">
         <v>520</v>
       </c>
-      <c r="I56" t="s">
-        <v>410</v>
-      </c>
-      <c r="J56" t="s">
-        <v>521</v>
-      </c>
       <c r="K56" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M56" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N56" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="57" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
+        <v>521</v>
+      </c>
+      <c r="I57" t="s">
+        <v>412</v>
+      </c>
+      <c r="J57" t="s">
         <v>522</v>
       </c>
-      <c r="I57" t="s">
-        <v>413</v>
-      </c>
-      <c r="J57" t="s">
-        <v>523</v>
-      </c>
       <c r="K57" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M57" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N57" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="58" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
+        <v>523</v>
+      </c>
+      <c r="I58" t="s">
+        <v>417</v>
+      </c>
+      <c r="J58" t="s">
         <v>524</v>
       </c>
-      <c r="I58" t="s">
-        <v>418</v>
-      </c>
-      <c r="J58" t="s">
-        <v>525</v>
-      </c>
       <c r="K58" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M58" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N58" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="59" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
+        <v>525</v>
+      </c>
+      <c r="I59" t="s">
+        <v>412</v>
+      </c>
+      <c r="J59" t="s">
         <v>526</v>
       </c>
-      <c r="I59" t="s">
-        <v>413</v>
-      </c>
-      <c r="J59" t="s">
-        <v>527</v>
-      </c>
       <c r="K59" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M59" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N59" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="60" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
+        <v>527</v>
+      </c>
+      <c r="I60" t="s">
+        <v>422</v>
+      </c>
+      <c r="J60" t="s">
         <v>528</v>
       </c>
-      <c r="I60" t="s">
-        <v>423</v>
-      </c>
-      <c r="J60" t="s">
-        <v>529</v>
-      </c>
       <c r="K60" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M60" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
+        <v>529</v>
+      </c>
+      <c r="I61" t="s">
+        <v>412</v>
+      </c>
+      <c r="J61" t="s">
         <v>530</v>
       </c>
-      <c r="I61" t="s">
-        <v>413</v>
-      </c>
-      <c r="J61" t="s">
-        <v>531</v>
-      </c>
       <c r="M61" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="62" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
+        <v>531</v>
+      </c>
+      <c r="I62" t="s">
+        <v>422</v>
+      </c>
+      <c r="J62" t="s">
         <v>532</v>
       </c>
-      <c r="I62" t="s">
-        <v>423</v>
-      </c>
-      <c r="J62" t="s">
-        <v>533</v>
-      </c>
       <c r="M62" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="63" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
+        <v>533</v>
+      </c>
+      <c r="I63" t="s">
+        <v>417</v>
+      </c>
+      <c r="J63" t="s">
         <v>534</v>
       </c>
-      <c r="I63" t="s">
-        <v>418</v>
-      </c>
-      <c r="J63" t="s">
-        <v>535</v>
-      </c>
       <c r="M63" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="64" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
+        <v>535</v>
+      </c>
+      <c r="I64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J64" t="s">
         <v>536</v>
       </c>
-      <c r="I64" t="s">
-        <v>418</v>
-      </c>
-      <c r="J64" t="s">
-        <v>537</v>
-      </c>
       <c r="M64" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
+        <v>537</v>
+      </c>
+      <c r="I65" t="s">
+        <v>425</v>
+      </c>
+      <c r="J65" t="s">
         <v>538</v>
       </c>
-      <c r="I65" t="s">
-        <v>426</v>
-      </c>
-      <c r="J65" t="s">
-        <v>539</v>
-      </c>
       <c r="M65" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
+        <v>539</v>
+      </c>
+      <c r="I66" t="s">
+        <v>425</v>
+      </c>
+      <c r="J66" t="s">
         <v>540</v>
       </c>
-      <c r="I66" t="s">
-        <v>426</v>
-      </c>
-      <c r="J66" t="s">
-        <v>541</v>
-      </c>
       <c r="M66" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
+        <v>541</v>
+      </c>
+      <c r="I67" t="s">
+        <v>422</v>
+      </c>
+      <c r="J67" t="s">
         <v>542</v>
       </c>
-      <c r="I67" t="s">
-        <v>423</v>
-      </c>
-      <c r="J67" t="s">
-        <v>543</v>
-      </c>
       <c r="M67" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
+        <v>543</v>
+      </c>
+      <c r="I68" t="s">
+        <v>412</v>
+      </c>
+      <c r="J68" t="s">
         <v>544</v>
-      </c>
-      <c r="I68" t="s">
-        <v>413</v>
-      </c>
-      <c r="J68" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="69" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
+        <v>545</v>
+      </c>
+      <c r="I69" t="s">
+        <v>417</v>
+      </c>
+      <c r="J69" t="s">
         <v>546</v>
-      </c>
-      <c r="I69" t="s">
-        <v>418</v>
-      </c>
-      <c r="J69" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="70" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
+        <v>547</v>
+      </c>
+      <c r="I70" t="s">
+        <v>425</v>
+      </c>
+      <c r="J70" t="s">
         <v>548</v>
-      </c>
-      <c r="I70" t="s">
-        <v>426</v>
-      </c>
-      <c r="J70" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="71" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
+        <v>549</v>
+      </c>
+      <c r="I71" t="s">
+        <v>412</v>
+      </c>
+      <c r="J71" t="s">
         <v>550</v>
-      </c>
-      <c r="I71" t="s">
-        <v>413</v>
-      </c>
-      <c r="J71" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="72" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H72" t="s">
+        <v>551</v>
+      </c>
+      <c r="I72" t="s">
+        <v>412</v>
+      </c>
+      <c r="J72" t="s">
         <v>552</v>
-      </c>
-      <c r="I72" t="s">
-        <v>413</v>
-      </c>
-      <c r="J72" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="73" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H73" t="s">
+        <v>553</v>
+      </c>
+      <c r="I73" t="s">
+        <v>412</v>
+      </c>
+      <c r="J73" t="s">
         <v>554</v>
-      </c>
-      <c r="I73" t="s">
-        <v>413</v>
-      </c>
-      <c r="J73" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="74" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H74" t="s">
+        <v>555</v>
+      </c>
+      <c r="I74" t="s">
+        <v>412</v>
+      </c>
+      <c r="J74" t="s">
         <v>556</v>
-      </c>
-      <c r="I74" t="s">
-        <v>413</v>
-      </c>
-      <c r="J74" t="s">
-        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/data base/onAirCampos.xlsx
+++ b/data base/onAirCampos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="listados" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$147</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="900">
   <si>
     <t>fuente</t>
   </si>
@@ -2729,7 +2729,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2930,23 +2930,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2982,23 +2965,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3174,12 +3140,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4739,6 +4705,9 @@
       <c r="H53" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="J53" s="5" t="s">
+        <v>858</v>
+      </c>
       <c r="L53" s="5" t="s">
         <v>887</v>
       </c>
@@ -4759,6 +4728,9 @@
       <c r="H54" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="J54" s="5" t="s">
+        <v>858</v>
+      </c>
       <c r="L54" s="5" t="s">
         <v>886</v>
       </c>
@@ -7005,14 +6977,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I147"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7035,7 +7007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">

--- a/data base/onAirCampos.xlsx
+++ b/data base/onAirCampos.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\zolid_on_air\data base\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$147</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="901">
   <si>
     <t>fuente</t>
   </si>
@@ -2724,13 +2719,16 @@
   </si>
   <si>
     <t>arranca en falso</t>
+  </si>
+  <si>
+    <t>preck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2855,7 +2853,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2897,7 +2895,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2929,10 +2927,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2964,7 +2961,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3140,15 +3136,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
@@ -3160,7 +3157,7 @@
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>278</v>
       </c>
@@ -3189,7 +3186,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>135</v>
       </c>
@@ -3218,7 +3215,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>136</v>
       </c>
@@ -3235,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>123</v>
+        <v>900</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>404</v>
@@ -3247,7 +3244,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="6" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>137</v>
       </c>
@@ -3258,13 +3255,13 @@
         <v>121</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>124</v>
+        <v>867</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>123</v>
+        <v>900</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>404</v>
@@ -3276,7 +3273,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>138</v>
       </c>
@@ -3305,7 +3302,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="6" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>139</v>
       </c>
@@ -3334,7 +3331,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="6" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>140</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
@@ -3392,7 +3389,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A9" s="6" t="s">
         <v>142</v>
       </c>
@@ -3424,7 +3421,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A10" s="6" t="s">
         <v>143</v>
       </c>
@@ -3453,7 +3450,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="6" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>144</v>
       </c>
@@ -3482,7 +3479,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="6" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>145</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>146</v>
       </c>
@@ -3528,7 +3525,7 @@
         <v>126</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>123</v>
+        <v>900</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>134</v>
@@ -3540,7 +3537,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A14" s="6" t="s">
         <v>147</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="6" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>148</v>
       </c>
@@ -3586,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>123</v>
+        <v>900</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>404</v>
@@ -3601,7 +3598,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="6" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>149</v>
       </c>
@@ -3618,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>123</v>
+        <v>900</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>404</v>
@@ -3633,7 +3630,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="6" customFormat="1">
       <c r="A17" s="6" t="s">
         <v>150</v>
       </c>
@@ -3662,7 +3659,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="6" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>151</v>
       </c>
@@ -3691,7 +3688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="6" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>152</v>
       </c>
@@ -3720,7 +3717,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>153</v>
       </c>
@@ -3749,7 +3746,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>154</v>
       </c>
@@ -3778,7 +3775,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="6" customFormat="1">
       <c r="A22" s="6" t="s">
         <v>155</v>
       </c>
@@ -3807,7 +3804,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="6" customFormat="1">
       <c r="A23" s="6" t="s">
         <v>156</v>
       </c>
@@ -3824,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>123</v>
+        <v>900</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>126</v>
@@ -3836,7 +3833,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A24" s="6" t="s">
         <v>157</v>
       </c>
@@ -3865,7 +3862,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="6" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>158</v>
       </c>
@@ -3894,7 +3891,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="6" customFormat="1">
       <c r="A26" s="6" t="s">
         <v>159</v>
       </c>
@@ -3923,7 +3920,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="6" customFormat="1">
       <c r="A27" s="6" t="s">
         <v>160</v>
       </c>
@@ -3955,7 +3952,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A28" s="6" t="s">
         <v>161</v>
       </c>
@@ -3987,7 +3984,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A29" s="6" t="s">
         <v>162</v>
       </c>
@@ -4019,7 +4016,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A30" s="6" t="s">
         <v>163</v>
       </c>
@@ -4048,7 +4045,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A31" s="6" t="s">
         <v>164</v>
       </c>
@@ -4077,7 +4074,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="1" customFormat="1">
       <c r="A32" s="1" t="s">
         <v>165</v>
       </c>
@@ -4103,7 +4100,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A33" s="6" t="s">
         <v>166</v>
       </c>
@@ -4132,7 +4129,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A34" s="6" t="s">
         <v>167</v>
       </c>
@@ -4161,7 +4158,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A35" s="6" t="s">
         <v>168</v>
       </c>
@@ -4190,7 +4187,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="6" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>169</v>
       </c>
@@ -4222,7 +4219,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="6" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>170</v>
       </c>
@@ -4251,7 +4248,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="6" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>171</v>
       </c>
@@ -4283,7 +4280,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A39" s="6" t="s">
         <v>172</v>
       </c>
@@ -4315,7 +4312,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A40" s="6" t="s">
         <v>173</v>
       </c>
@@ -4344,7 +4341,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="6" customFormat="1">
       <c r="A41" s="6" t="s">
         <v>174</v>
       </c>
@@ -4373,7 +4370,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="6" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>175</v>
       </c>
@@ -4402,7 +4399,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>176</v>
       </c>
@@ -4428,7 +4425,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>177</v>
       </c>
@@ -4454,7 +4451,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="7" customFormat="1">
       <c r="A45" s="7" t="s">
         <v>178</v>
       </c>
@@ -4477,7 +4474,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="1" customFormat="1">
       <c r="A46" s="1" t="s">
         <v>179</v>
       </c>
@@ -4509,7 +4506,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
         <v>180</v>
       </c>
@@ -4541,7 +4538,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="1" customFormat="1">
       <c r="A48" s="1" t="s">
         <v>181</v>
       </c>
@@ -4573,7 +4570,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="6" customFormat="1" hidden="1">
       <c r="A49" s="6" t="s">
         <v>182</v>
       </c>
@@ -4602,7 +4599,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="6" customFormat="1" hidden="1">
       <c r="A50" s="6" t="s">
         <v>183</v>
       </c>
@@ -4631,7 +4628,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="6" customFormat="1" hidden="1">
       <c r="A51" s="6" t="s">
         <v>184</v>
       </c>
@@ -4660,7 +4657,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="6" customFormat="1" hidden="1">
       <c r="A52" s="6" t="s">
         <v>185</v>
       </c>
@@ -4689,7 +4686,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="5" customFormat="1">
       <c r="A53" s="5" t="s">
         <v>186</v>
       </c>
@@ -4712,7 +4709,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="5" customFormat="1">
       <c r="A54" s="5" t="s">
         <v>187</v>
       </c>
@@ -4735,7 +4732,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="5" customFormat="1">
       <c r="A55" s="5" t="s">
         <v>188</v>
       </c>
@@ -4752,7 +4749,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="6" customFormat="1" hidden="1">
       <c r="A56" s="6" t="s">
         <v>189</v>
       </c>
@@ -4778,7 +4775,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="6" customFormat="1" hidden="1">
       <c r="A57" s="6" t="s">
         <v>190</v>
       </c>
@@ -4804,7 +4801,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A58" s="1" t="s">
         <v>191</v>
       </c>
@@ -4836,7 +4833,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A59" s="1" t="s">
         <v>192</v>
       </c>
@@ -4868,7 +4865,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A60" s="1" t="s">
         <v>193</v>
       </c>
@@ -4894,7 +4891,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A61" s="1" t="s">
         <v>194</v>
       </c>
@@ -4920,7 +4917,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A62" s="1" t="s">
         <v>195</v>
       </c>
@@ -4943,7 +4940,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A63" s="1" t="s">
         <v>196</v>
       </c>
@@ -4969,7 +4966,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -4992,7 +4989,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A65" s="1" t="s">
         <v>198</v>
       </c>
@@ -5018,7 +5015,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A67" s="1" t="s">
         <v>200</v>
       </c>
@@ -5067,7 +5064,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A68" s="1" t="s">
         <v>201</v>
       </c>
@@ -5090,7 +5087,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A69" s="1" t="s">
         <v>202</v>
       </c>
@@ -5116,7 +5113,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A70" s="1" t="s">
         <v>203</v>
       </c>
@@ -5139,7 +5136,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A71" s="1" t="s">
         <v>204</v>
       </c>
@@ -5165,7 +5162,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A72" s="1" t="s">
         <v>205</v>
       </c>
@@ -5188,7 +5185,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" s="1" customFormat="1" hidden="1">
       <c r="A73" s="1" t="s">
         <v>206</v>
       </c>
@@ -5211,7 +5208,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" s="6" customFormat="1">
       <c r="A74" s="6" t="s">
         <v>207</v>
       </c>
@@ -5240,7 +5237,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" s="5" customFormat="1">
       <c r="A75" s="5" t="s">
         <v>208</v>
       </c>
@@ -5257,7 +5254,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="5" customFormat="1">
       <c r="A76" s="5" t="s">
         <v>209</v>
       </c>
@@ -5274,7 +5271,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="6" customFormat="1" hidden="1">
       <c r="A77" s="6" t="s">
         <v>210</v>
       </c>
@@ -5303,7 +5300,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" s="6" customFormat="1" hidden="1">
       <c r="A78" s="6" t="s">
         <v>211</v>
       </c>
@@ -5332,7 +5329,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" s="6" customFormat="1">
       <c r="A79" s="6" t="s">
         <v>212</v>
       </c>
@@ -5364,7 +5361,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="6" customFormat="1">
       <c r="A80" s="6" t="s">
         <v>213</v>
       </c>
@@ -5396,7 +5393,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="6" customFormat="1" hidden="1">
       <c r="A81" s="6" t="s">
         <v>214</v>
       </c>
@@ -5425,7 +5422,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="6" customFormat="1" hidden="1">
       <c r="A82" s="6" t="s">
         <v>215</v>
       </c>
@@ -5454,7 +5451,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="6" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>216</v>
       </c>
@@ -5486,7 +5483,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="6" customFormat="1">
       <c r="A84" s="6" t="s">
         <v>217</v>
       </c>
@@ -5518,7 +5515,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" s="6" customFormat="1">
       <c r="A85" s="6" t="s">
         <v>218</v>
       </c>
@@ -5550,7 +5547,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" s="6" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>219</v>
       </c>
@@ -5582,7 +5579,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" s="6" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>220</v>
       </c>
@@ -5614,7 +5611,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" s="6" customFormat="1">
       <c r="A88" s="6" t="s">
         <v>221</v>
       </c>
@@ -5646,7 +5643,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" s="6" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>222</v>
       </c>
@@ -5678,7 +5675,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="6" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>223</v>
       </c>
@@ -5710,7 +5707,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="6" customFormat="1">
       <c r="A91" s="6" t="s">
         <v>224</v>
       </c>
@@ -5742,7 +5739,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>225</v>
       </c>
@@ -5774,7 +5771,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>226</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" s="6" customFormat="1">
       <c r="A94" s="6" t="s">
         <v>227</v>
       </c>
@@ -5838,7 +5835,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" s="6" customFormat="1">
       <c r="A95" s="6" t="s">
         <v>228</v>
       </c>
@@ -5870,7 +5867,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" s="6" customFormat="1">
       <c r="A96" s="6" t="s">
         <v>229</v>
       </c>
@@ -5899,7 +5896,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="8" customFormat="1">
       <c r="A97" s="8" t="s">
         <v>230</v>
       </c>
@@ -5913,7 +5910,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="8" customFormat="1">
       <c r="A98" s="8" t="s">
         <v>231</v>
       </c>
@@ -5927,7 +5924,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A99" s="6" t="s">
         <v>232</v>
       </c>
@@ -5956,7 +5953,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A100" s="6" t="s">
         <v>233</v>
       </c>
@@ -5982,7 +5979,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A101" s="6" t="s">
         <v>234</v>
       </c>
@@ -6008,7 +6005,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="8" customFormat="1">
       <c r="A102" s="8" t="s">
         <v>235</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="8" customFormat="1">
       <c r="A103" s="8" t="s">
         <v>236</v>
       </c>
@@ -6030,7 +6027,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A104" s="6" t="s">
         <v>237</v>
       </c>
@@ -6059,7 +6056,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="6" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>238</v>
       </c>
@@ -6085,7 +6082,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="6" customFormat="1">
       <c r="A106" s="6" t="s">
         <v>239</v>
       </c>
@@ -6111,7 +6108,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A107" s="6" t="s">
         <v>240</v>
       </c>
@@ -6140,7 +6137,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A108" s="6" t="s">
         <v>241</v>
       </c>
@@ -6169,7 +6166,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A109" s="6" t="s">
         <v>243</v>
       </c>
@@ -6198,7 +6195,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A110" s="6" t="s">
         <v>244</v>
       </c>
@@ -6227,7 +6224,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A111" s="6" t="s">
         <v>245</v>
       </c>
@@ -6256,7 +6253,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="6" customFormat="1">
       <c r="A112" s="6" t="s">
         <v>246</v>
       </c>
@@ -6282,7 +6279,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" s="6" customFormat="1">
       <c r="A113" s="6" t="s">
         <v>247</v>
       </c>
@@ -6308,7 +6305,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="6" customFormat="1">
       <c r="A114" s="6" t="s">
         <v>248</v>
       </c>
@@ -6337,7 +6334,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="6" customFormat="1">
       <c r="A115" s="6" t="s">
         <v>249</v>
       </c>
@@ -6363,7 +6360,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" s="6" customFormat="1">
       <c r="A116" s="6" t="s">
         <v>250</v>
       </c>
@@ -6392,7 +6389,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="6" customFormat="1">
       <c r="A117" s="6" t="s">
         <v>251</v>
       </c>
@@ -6424,7 +6421,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" s="6" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>252</v>
       </c>
@@ -6450,7 +6447,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="6" customFormat="1">
       <c r="A119" s="6" t="s">
         <v>253</v>
       </c>
@@ -6476,7 +6473,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" s="6" customFormat="1" hidden="1">
       <c r="A120" s="6" t="s">
         <v>254</v>
       </c>
@@ -6505,7 +6502,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" s="9" customFormat="1">
       <c r="A121" s="9" t="s">
         <v>261</v>
       </c>
@@ -6531,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>262</v>
       </c>
@@ -6557,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>263</v>
       </c>
@@ -6580,7 +6577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -6603,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>265</v>
       </c>
@@ -6629,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>266</v>
       </c>
@@ -6652,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>267</v>
       </c>
@@ -6675,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>268</v>
       </c>
@@ -6698,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>269</v>
       </c>
@@ -6721,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>270</v>
       </c>
@@ -6744,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>271</v>
       </c>
@@ -6770,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>272</v>
       </c>
@@ -6796,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>273</v>
       </c>
@@ -6816,7 +6813,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>275</v>
       </c>
@@ -6836,7 +6833,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -6856,7 +6853,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>277</v>
       </c>
@@ -6876,7 +6873,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>276</v>
       </c>
@@ -6896,7 +6893,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>277</v>
       </c>
@@ -6904,7 +6901,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>338</v>
       </c>
@@ -6912,7 +6909,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>339</v>
       </c>
@@ -6920,7 +6917,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>340</v>
       </c>
@@ -6928,7 +6925,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>341</v>
       </c>
@@ -6936,7 +6933,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>342</v>
       </c>
@@ -6944,7 +6941,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>344</v>
       </c>
@@ -6952,7 +6949,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>345</v>
       </c>
@@ -6960,7 +6957,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>347</v>
       </c>
@@ -6968,7 +6965,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>349</v>
       </c>
@@ -6977,14 +6974,38 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I147"/>
+  <autoFilter ref="A1:I147">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Ing"/>
+        <filter val="sistema"/>
+        <filter val="sitema"/>
+        <filter val="usuario"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="inicio"/>
+        <filter val="inicio*"/>
+        <filter val="inicio,todas"/>
+        <filter val="precheck"/>
+        <filter val="preck"/>
+        <filter val="seguimiento 12H"/>
+        <filter val="seguimiento 24H"/>
+        <filter val="seguimiento 36H"/>
+        <filter val="seguimiento 48H"/>
+        <filter val="seguimiento 4H, seguimiento 8H, seguimiento 12H;seguimiento 24H, seguimiento 36H"/>
+        <filter val="todas"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6992,7 +7013,7 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
@@ -7007,14 +7028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
@@ -7034,7 +7055,7 @@
     <col min="16" max="16" width="93.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -7078,7 +7099,7 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -7124,7 +7145,7 @@
       </c>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>351</v>
       </c>
@@ -7174,7 +7195,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>352</v>
       </c>
@@ -7224,7 +7245,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>353</v>
       </c>
@@ -7271,7 +7292,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>354</v>
       </c>
@@ -7318,7 +7339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>355</v>
       </c>
@@ -7362,7 +7383,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -7406,7 +7427,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="B9" t="s">
         <v>364</v>
       </c>
@@ -7447,7 +7468,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="B10" t="s">
         <v>365</v>
       </c>
@@ -7488,7 +7509,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="C11" t="s">
         <v>766</v>
       </c>
@@ -7526,7 +7547,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" t="s">
         <v>767</v>
       </c>
@@ -7564,7 +7585,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="D13" t="s">
         <v>777</v>
       </c>
@@ -7599,7 +7620,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="D14" t="s">
         <v>778</v>
       </c>
@@ -7634,7 +7655,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="D15" t="s">
         <v>779</v>
       </c>
@@ -7669,7 +7690,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="D16" t="s">
         <v>780</v>
       </c>
@@ -7704,7 +7725,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16">
       <c r="D17" t="s">
         <v>781</v>
       </c>
@@ -7739,7 +7760,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16">
       <c r="D18" t="s">
         <v>782</v>
       </c>
@@ -7774,7 +7795,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:16">
       <c r="D19" t="s">
         <v>783</v>
       </c>
@@ -7809,7 +7830,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:16">
       <c r="D20" t="s">
         <v>784</v>
       </c>
@@ -7844,7 +7865,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:16">
       <c r="D21" t="s">
         <v>785</v>
       </c>
@@ -7879,7 +7900,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:16">
       <c r="D22" t="s">
         <v>786</v>
       </c>
@@ -7914,7 +7935,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:16">
       <c r="D23" t="s">
         <v>787</v>
       </c>
@@ -7949,7 +7970,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:16">
       <c r="D24" t="s">
         <v>788</v>
       </c>
@@ -7984,7 +8005,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:16">
       <c r="D25" t="s">
         <v>789</v>
       </c>
@@ -8019,7 +8040,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:16">
       <c r="D26" t="s">
         <v>790</v>
       </c>
@@ -8054,7 +8075,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:16">
       <c r="D27" t="s">
         <v>791</v>
       </c>
@@ -8089,7 +8110,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:16">
       <c r="D28" t="s">
         <v>792</v>
       </c>
@@ -8124,7 +8145,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:16">
       <c r="D29" t="s">
         <v>793</v>
       </c>
@@ -8159,7 +8180,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:16">
       <c r="D30" t="s">
         <v>794</v>
       </c>
@@ -8194,7 +8215,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:16">
       <c r="D31" t="s">
         <v>765</v>
       </c>
@@ -8229,7 +8250,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:16">
       <c r="D32" t="s">
         <v>767</v>
       </c>
@@ -8264,7 +8285,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:16">
       <c r="H33" t="s">
         <v>473</v>
       </c>
@@ -8290,7 +8311,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:16">
       <c r="H34" t="s">
         <v>475</v>
       </c>
@@ -8316,7 +8337,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:16">
       <c r="H35" t="s">
         <v>477</v>
       </c>
@@ -8342,7 +8363,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:16">
       <c r="H36" t="s">
         <v>479</v>
       </c>
@@ -8368,7 +8389,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:16">
       <c r="H37" t="s">
         <v>481</v>
       </c>
@@ -8394,7 +8415,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:16">
       <c r="H38" t="s">
         <v>483</v>
       </c>
@@ -8420,7 +8441,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:16">
       <c r="H39" t="s">
         <v>485</v>
       </c>
@@ -8446,7 +8467,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:16">
       <c r="H40" t="s">
         <v>487</v>
       </c>
@@ -8466,7 +8487,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:16">
       <c r="H41" t="s">
         <v>489</v>
       </c>
@@ -8486,7 +8507,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:16">
       <c r="H42" t="s">
         <v>491</v>
       </c>
@@ -8506,7 +8527,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="43" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:16">
       <c r="H43" t="s">
         <v>493</v>
       </c>
@@ -8526,7 +8547,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="44" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:16">
       <c r="H44" t="s">
         <v>495</v>
       </c>
@@ -8546,7 +8567,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="45" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:16">
       <c r="H45" t="s">
         <v>497</v>
       </c>
@@ -8566,7 +8587,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="46" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:16">
       <c r="H46" t="s">
         <v>499</v>
       </c>
@@ -8586,7 +8607,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="47" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:16">
       <c r="H47" t="s">
         <v>501</v>
       </c>
@@ -8606,7 +8627,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="48" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:16">
       <c r="H48" t="s">
         <v>503</v>
       </c>
@@ -8626,7 +8647,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:14">
       <c r="H49" t="s">
         <v>505</v>
       </c>
@@ -8646,7 +8667,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:14">
       <c r="H50" t="s">
         <v>507</v>
       </c>
@@ -8666,7 +8687,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:14">
       <c r="H51" t="s">
         <v>509</v>
       </c>
@@ -8686,7 +8707,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:14">
       <c r="H52" t="s">
         <v>511</v>
       </c>
@@ -8706,7 +8727,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:14">
       <c r="H53" t="s">
         <v>513</v>
       </c>
@@ -8726,7 +8747,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:14">
       <c r="H54" t="s">
         <v>515</v>
       </c>
@@ -8746,7 +8767,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:14">
       <c r="H55" t="s">
         <v>517</v>
       </c>
@@ -8766,7 +8787,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:14">
       <c r="H56" t="s">
         <v>519</v>
       </c>
@@ -8786,7 +8807,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:14">
       <c r="H57" t="s">
         <v>521</v>
       </c>
@@ -8806,7 +8827,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:14">
       <c r="H58" t="s">
         <v>523</v>
       </c>
@@ -8826,7 +8847,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:14">
       <c r="H59" t="s">
         <v>525</v>
       </c>
@@ -8846,7 +8867,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="60" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:14">
       <c r="H60" t="s">
         <v>527</v>
       </c>
@@ -8863,7 +8884,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="61" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:14">
       <c r="H61" t="s">
         <v>529</v>
       </c>
@@ -8877,7 +8898,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="62" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:14">
       <c r="H62" t="s">
         <v>531</v>
       </c>
@@ -8891,7 +8912,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="63" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:14">
       <c r="H63" t="s">
         <v>533</v>
       </c>
@@ -8905,7 +8926,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="64" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:14">
       <c r="H64" t="s">
         <v>535</v>
       </c>
@@ -8919,7 +8940,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:13">
       <c r="H65" t="s">
         <v>537</v>
       </c>
@@ -8933,7 +8954,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="66" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:13">
       <c r="H66" t="s">
         <v>539</v>
       </c>
@@ -8947,7 +8968,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="67" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:13">
       <c r="H67" t="s">
         <v>541</v>
       </c>
@@ -8961,7 +8982,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="68" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:13">
       <c r="H68" t="s">
         <v>543</v>
       </c>
@@ -8972,7 +8993,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="69" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:13">
       <c r="H69" t="s">
         <v>545</v>
       </c>
@@ -8983,7 +9004,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:13">
       <c r="H70" t="s">
         <v>547</v>
       </c>
@@ -8994,7 +9015,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="71" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:13">
       <c r="H71" t="s">
         <v>549</v>
       </c>
@@ -9005,7 +9026,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="72" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:13">
       <c r="H72" t="s">
         <v>551</v>
       </c>
@@ -9016,7 +9037,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:13">
       <c r="H73" t="s">
         <v>553</v>
       </c>
@@ -9027,7 +9048,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="74" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:13">
       <c r="H74" t="s">
         <v>555</v>
       </c>
